--- a/print_best_result_excel/case2/tested_state_dqn_optimal_design_case2_0612.xlsx
+++ b/print_best_result_excel/case2/tested_state_dqn_optimal_design_case2_0612.xlsx
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6-B-10</t>
+          <t>0-5-B-30</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -561,13 +561,13 @@
         <v>0.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0107441859750329</v>
+        <v>0.0107413725474364</v>
       </c>
       <c r="F5" t="n">
-        <v>27.87502751627398</v>
+        <v>27.55020449961677</v>
       </c>
       <c r="G5" t="n">
-        <v>28.12497248372602</v>
+        <v>28.44979550038323</v>
       </c>
       <c r="H5" t="n">
         <v>5.1</v>
@@ -579,7 +579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6-B-30</t>
+          <t>1-1-B-10</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -592,13 +592,13 @@
         <v>0.9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01064893851083492</v>
+        <v>0.01065950256476992</v>
       </c>
       <c r="F6" t="n">
-        <v>25.48602828361113</v>
+        <v>25.62758286044704</v>
       </c>
       <c r="G6" t="n">
-        <v>30.51397171638887</v>
+        <v>30.37241713955296</v>
       </c>
       <c r="H6" t="n">
         <v>5.1</v>
@@ -610,26 +610,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0-A-30</t>
+          <t>6-B-10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>557.3485947181831</v>
+        <v>2000</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01636938822768842</v>
+        <v>0.0107441859750329</v>
       </c>
       <c r="F7" t="n">
-        <v>23.91679340595782</v>
+        <v>27.87502751627398</v>
       </c>
       <c r="G7" t="n">
-        <v>24.08320659404218</v>
+        <v>28.12497248372602</v>
       </c>
       <c r="H7" t="n">
         <v>5.1</v>
@@ -641,7 +641,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1-B-10</t>
+          <t>6-B-30</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -654,13 +654,13 @@
         <v>0.9</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01074429140822956</v>
+        <v>0.01064893851083492</v>
       </c>
       <c r="F8" t="n">
-        <v>28.09362287051542</v>
+        <v>25.48602828361113</v>
       </c>
       <c r="G8" t="n">
-        <v>27.90637712948458</v>
+        <v>30.51397171638887</v>
       </c>
       <c r="H8" t="n">
         <v>5.1</v>
@@ -672,7 +672,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1-B-30</t>
+          <t>1-1-B-30</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -685,13 +685,13 @@
         <v>0.9</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01074412209992208</v>
+        <v>0.01072569855964328</v>
       </c>
       <c r="F9" t="n">
-        <v>28.14164266768346</v>
+        <v>26.88465840360076</v>
       </c>
       <c r="G9" t="n">
-        <v>27.85835733231654</v>
+        <v>29.11534159639924</v>
       </c>
       <c r="H9" t="n">
         <v>5.1</v>
@@ -703,26 +703,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0-A-10</t>
+          <t>0-5-B-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>205.2788456504736</v>
+        <v>2000</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01636805104481229</v>
+        <v>0.01074423419171662</v>
       </c>
       <c r="F10" t="n">
-        <v>23.72678234241673</v>
+        <v>28.11218136214027</v>
       </c>
       <c r="G10" t="n">
-        <v>24.27321765758327</v>
+        <v>27.88781863785973</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
@@ -734,26 +734,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6-A-30</t>
+          <t>0-A-30</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1660.883284776136</v>
+        <v>557.3485947181831</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02377753704869515</v>
+        <v>0.01636938822768842</v>
       </c>
       <c r="F11" t="n">
-        <v>34.4151374670907</v>
+        <v>23.91679340595782</v>
       </c>
       <c r="G11" t="n">
-        <v>17.5848625329093</v>
+        <v>24.08320659404218</v>
       </c>
       <c r="H11" t="n">
         <v>5.1</v>
@@ -765,26 +765,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6-A-10</t>
+          <t>1-B-10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>686.2742901268003</v>
+        <v>2000</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01636888024510889</v>
+        <v>0.01074429140822956</v>
       </c>
       <c r="F12" t="n">
-        <v>23.81946791149755</v>
+        <v>28.09362287051542</v>
       </c>
       <c r="G12" t="n">
-        <v>24.18053208850245</v>
+        <v>27.90637712948458</v>
       </c>
       <c r="H12" t="n">
         <v>5.1</v>
@@ -796,26 +796,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5-A-10</t>
+          <t>1-B-30</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>244.8463623632462</v>
+        <v>2000</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01636918399692524</v>
+        <v>0.01074412209992208</v>
       </c>
       <c r="F13" t="n">
-        <v>23.86876734870427</v>
+        <v>28.14164266768346</v>
       </c>
       <c r="G13" t="n">
-        <v>24.13123265129573</v>
+        <v>27.85835733231654</v>
       </c>
       <c r="H13" t="n">
         <v>5.1</v>
@@ -827,26 +827,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1-A-30</t>
+          <t>0-A-10</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>798.8618924363942</v>
+        <v>205.2788456504736</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01636946945322575</v>
+        <v>0.01636805104481229</v>
       </c>
       <c r="F14" t="n">
-        <v>24.05580417389835</v>
+        <v>23.72678234241673</v>
       </c>
       <c r="G14" t="n">
-        <v>23.94419582610165</v>
+        <v>24.27321765758327</v>
       </c>
       <c r="H14" t="n">
         <v>5.1</v>
@@ -858,26 +858,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3-A-30</t>
+          <t>0-5-A-10</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>1189.597873282755</v>
+        <v>244.8463623632462</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01627036020557298</v>
+        <v>0.01636918399692524</v>
       </c>
       <c r="F15" t="n">
-        <v>26.2464313896092</v>
+        <v>23.86876734870427</v>
       </c>
       <c r="G15" t="n">
-        <v>21.7535686103908</v>
+        <v>24.13123265129573</v>
       </c>
       <c r="H15" t="n">
         <v>5.1</v>
@@ -889,26 +889,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3-A-10</t>
+          <t>1-1-A-30</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>448.2530161538293</v>
+        <v>798.8618924363942</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01635645033013147</v>
+        <v>0.01636946945322575</v>
       </c>
       <c r="F16" t="n">
-        <v>23.18477736081385</v>
+        <v>24.05580417389835</v>
       </c>
       <c r="G16" t="n">
-        <v>24.81522263918615</v>
+        <v>23.94419582610165</v>
       </c>
       <c r="H16" t="n">
         <v>5.1</v>
@@ -920,26 +920,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1-A-10</t>
+          <t>6-A-30</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>294.2591394592483</v>
+        <v>1660.883284776136</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01635994515282161</v>
+        <v>0.02377753704869515</v>
       </c>
       <c r="F17" t="n">
-        <v>23.3022893672036</v>
+        <v>34.4151374670907</v>
       </c>
       <c r="G17" t="n">
-        <v>24.6977106327964</v>
+        <v>17.5848625329093</v>
       </c>
       <c r="H17" t="n">
         <v>5.1</v>
@@ -951,26 +951,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5-A-30</t>
+          <t>6-A-10</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>658.9898716955206</v>
+        <v>686.2742901268003</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0163293883102309</v>
+        <v>0.01636888024510889</v>
       </c>
       <c r="F18" t="n">
-        <v>25.43095371111214</v>
+        <v>23.81946791149755</v>
       </c>
       <c r="G18" t="n">
-        <v>22.56904628888786</v>
+        <v>24.18053208850245</v>
       </c>
       <c r="H18" t="n">
         <v>5.1</v>
@@ -982,26 +982,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5-A-30</t>
+          <t>1-1-A-10</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>1532.809054100013</v>
+        <v>294.2591394592483</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02533148972254638</v>
+        <v>0.01635994515282161</v>
       </c>
       <c r="F19" t="n">
-        <v>30.56594895493245</v>
+        <v>23.3022893672036</v>
       </c>
       <c r="G19" t="n">
-        <v>21.43405104506755</v>
+        <v>24.6977106327964</v>
       </c>
       <c r="H19" t="n">
         <v>5.1</v>
@@ -1013,26 +1013,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5-A-10</t>
+          <t>0-5-A-30</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>602.2310312449899</v>
+        <v>658.9898716955206</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01636649628800033</v>
+        <v>0.0163293883102309</v>
       </c>
       <c r="F20" t="n">
-        <v>24.39435003509929</v>
+        <v>25.43095371111214</v>
       </c>
       <c r="G20" t="n">
-        <v>23.60564996490071</v>
+        <v>22.56904628888786</v>
       </c>
       <c r="H20" t="n">
         <v>5.1</v>
@@ -1044,26 +1044,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3-B-10</t>
+          <t>3-A-30</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>2000</v>
+        <v>1189.597873282755</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01073332621144961</v>
+        <v>0.01627036020557298</v>
       </c>
       <c r="F21" t="n">
-        <v>27.13962675594681</v>
+        <v>26.2464313896092</v>
       </c>
       <c r="G21" t="n">
-        <v>28.86037324405319</v>
+        <v>21.7535686103908</v>
       </c>
       <c r="H21" t="n">
         <v>5.1</v>
@@ -1075,26 +1075,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5-B-30</t>
+          <t>3-A-10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>2000</v>
+        <v>448.2530161538293</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0107413725474364</v>
+        <v>0.01635645033013147</v>
       </c>
       <c r="F22" t="n">
-        <v>27.55020449961677</v>
+        <v>23.18477736081385</v>
       </c>
       <c r="G22" t="n">
-        <v>28.44979550038323</v>
+        <v>24.81522263918615</v>
       </c>
       <c r="H22" t="n">
         <v>5.1</v>
@@ -1106,26 +1106,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1-B-10</t>
+          <t>5-A-30</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>2000</v>
+        <v>1532.809054100013</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01065950256476992</v>
+        <v>0.02533148972254638</v>
       </c>
       <c r="F23" t="n">
-        <v>25.62758286044704</v>
+        <v>30.56594895493245</v>
       </c>
       <c r="G23" t="n">
-        <v>30.37241713955296</v>
+        <v>21.43405104506755</v>
       </c>
       <c r="H23" t="n">
         <v>5.1</v>
@@ -1137,26 +1137,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1-B-30</t>
+          <t>5-A-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>2000</v>
+        <v>602.2310312449899</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01072569855964328</v>
+        <v>0.01636649628800033</v>
       </c>
       <c r="F24" t="n">
-        <v>26.88465840360076</v>
+        <v>24.39435003509929</v>
       </c>
       <c r="G24" t="n">
-        <v>29.11534159639924</v>
+        <v>23.60564996490071</v>
       </c>
       <c r="H24" t="n">
         <v>5.1</v>
@@ -1168,7 +1168,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5-B-10</t>
+          <t>3-B-10</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1181,13 +1181,13 @@
         <v>0.9</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01074423419171662</v>
+        <v>0.01073332621144961</v>
       </c>
       <c r="F25" t="n">
-        <v>28.11218136214027</v>
+        <v>27.13962675594681</v>
       </c>
       <c r="G25" t="n">
-        <v>27.88781863785973</v>
+        <v>28.86037324405319</v>
       </c>
       <c r="H25" t="n">
         <v>5.1</v>
